--- a/biology/Zoologie/Chien_d'eau_portugais/Chien_d'eau_portugais.xlsx
+++ b/biology/Zoologie/Chien_d'eau_portugais/Chien_d'eau_portugais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_d%27eau_portugais</t>
+          <t>Chien_d'eau_portugais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chien d'eau portugais est une race de chien du groupe des chiens d'eau. On le trouvait initialement le long des côtes portugaises où il aidait les pêcheurs à prendre le poisson dans les filets. On le retrouva également sur des bateaux de pêche jusque sur les bancs d'Islande, servant quelquefois de courrier entre les navires.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_d%27eau_portugais</t>
+          <t>Chien_d'eau_portugais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taille
-Femelle : 43 cm à 53 cm.
-Mâle : 51 cm à 58 cm.
-Poids
-Femelle : 15 kg à 22 kg.
-Mâle : 18 kg à 27 kg.</t>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Femelle : 43 cm à 53 cm.
+Mâle : 51 cm à 58 cm.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_d%27eau_portugais</t>
+          <t>Chien_d'eau_portugais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Historique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-La première description connue d'un chien d'eau portugais est faite par un moine en 1297. Son récit raconte comment un chien de ce type sauva un marin de la noyade[1].
-Époque moderne
-Cette race de chien a été portée à l'attention du public en avril 2009 quand le couple présidentiel américain, Michelle et Barack Obama ont choisi un chien d'eau portugais pour leurs filles comme animal domestique à la Maison Blanche, nommé Bo, devenant ainsi le nouveau First Dog. Le choix de cette race a été fait car Malia, l'une des deux filles Obama, est allergique aux poils de chien. En 2013, les Obama adopte une petite chienne, Sunny, de la même race[2].
-</t>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Femelle : 15 kg à 22 kg.
+Mâle : 18 kg à 27 kg.</t>
         </is>
       </c>
     </row>
@@ -564,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_d%27eau_portugais</t>
+          <t>Chien_d'eau_portugais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description connue d'un chien d'eau portugais est faite par un moine en 1297. Son récit raconte comment un chien de ce type sauva un marin de la noyade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chien_d'eau_portugais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien_d%27eau_portugais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Époque moderne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race de chien a été portée à l'attention du public en avril 2009 quand le couple présidentiel américain, Michelle et Barack Obama ont choisi un chien d'eau portugais pour leurs filles comme animal domestique à la Maison Blanche, nommé Bo, devenant ainsi le nouveau First Dog. Le choix de cette race a été fait car Malia, l'une des deux filles Obama, est allergique aux poils de chien. En 2013, les Obama adopte une petite chienne, Sunny, de la même race.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chien_d'eau_portugais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien_d%27eau_portugais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Maladies génétiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
